--- a/suzy/4_일정관리/역할및업무수행보고.xlsx
+++ b/suzy/4_일정관리/역할및업무수행보고.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mj-00\Desktop\sudy\사업\카멜레온\사업계획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mj-00\Desktop\sudy\chameleon\suzy\4_일정관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C880A9-6F27-49BD-A902-3B7A4A90B997}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176D88DA-1368-4A5F-B602-C4D749C37E94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2CA3A851-0C23-449A-A736-F61DE70D3813}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2CA3A851-0C23-449A-A736-F61DE70D3813}"/>
   </bookViews>
   <sheets>
     <sheet name="역할" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,26 +90,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>업무를 하지 못했을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인미팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>오프라인미팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업무를 하지 못했을 때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>온라인미팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오프라인미팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>업무완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +119,48 @@
   </si>
   <si>
     <t>PM(프로젝트관리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git에 계획서올림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스트리 설치 후 커밋 시도 - 실패
+적외선카메라 연결 후 화면 출력테스트(단순출력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 라즈베리파이4 부팅 및 와이파이 연결확인
+2. 빗물감지센서 디지털 input 감지성공
+3. 방수온도센서는 연결부가 다른관계로 사용하기 위해서는 직접 뜯거나 F/M 케이블 필요할 듯
+4. 빗물감지센서 아날로그 신호의 경우 라즈베리파이는 아날로그 인풋을 지원하지 않아 추가 모듈 사용 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인미팅(4시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 저장, 전송 아이디어 생각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 같은 와이파이 내에서 카메라스트리밍
+2. 카메라 연결이 라즈4에 있는데 발열이 엄청남(방열판 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창업박람회 알아봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제로에서 라즈베리4로 온습도 데이터 보내기, 
+라즈베리4에서 네트워크 내 센서찾기 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +212,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +261,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -316,7 +372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,15 +418,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,6 +428,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F043D508-96AD-461F-A813-609B28D3EA3E}">
   <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -722,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -730,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -746,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -758,56 +844,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E7C382-1D20-44D2-8FD0-2342261DA109}">
-  <dimension ref="A2:AF13"/>
+  <dimension ref="A2:AF18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" customWidth="1"/>
+    <col min="16" max="16" width="21.4140625" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:32" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="A2" s="9"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18" t="s">
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
       <c r="AE2" s="13"/>
       <c r="AF2" s="14"/>
     </row>
@@ -909,11 +998,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -922,21 +1011,27 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="15" t="s">
-        <v>13</v>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
@@ -951,29 +1046,33 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" s="8" customFormat="1" ht="85" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="16"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="30"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
@@ -987,29 +1086,31 @@
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
     </row>
-    <row r="6" spans="1:32" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" s="8" customFormat="1" ht="237.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="16"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="30"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
@@ -1023,29 +1124,33 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" s="8" customFormat="1" ht="160" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="17"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="31"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
@@ -1063,39 +1168,42 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I18" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="T4:T7"/>
     <mergeCell ref="B2:I2"/>
@@ -1103,6 +1211,7 @@
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="Q2:W2"/>
     <mergeCell ref="X2:AD2"/>
+    <mergeCell ref="N4:N7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
